--- a/backEnd/excels/MilesTrack_2026.xlsx
+++ b/backEnd/excels/MilesTrack_2026.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="May_2026" sheetId="1" r:id="rId1"/>
+    <sheet name="January_2026" sheetId="1" r:id="rId1"/>
+    <sheet name="June_2026" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +400,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>StartMiles</v>
+      </c>
+      <c r="C1" t="str">
+        <v>EndMiles</v>
+      </c>
+      <c r="D1" t="str">
+        <v>TotalMiles</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Payment</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TOTAL</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>4.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
@@ -428,19 +497,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-05-13</v>
+        <v>2026-06-27</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="E2">
-        <v>10.455</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +523,10 @@
         <v/>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>10.455</v>
+        <v>51.25</v>
       </c>
     </row>
   </sheetData>
